--- a/src/test/testdaten_insert_ag_pv_beitrag_sachsen/Arbeitsort Sachsen Arbeitgeber PV-Beitrag - anderer Beitragssatz.xlsx
+++ b/src/test/testdaten_insert_ag_pv_beitrag_sachsen/Arbeitsort Sachsen Arbeitgeber PV-Beitrag - anderer Beitragssatz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_ag_pv_beitrag_sachsen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61F6C83-9FBE-4482-88C7-A131E009B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2A7D5-5947-4E33-8418-55FD3FC8DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="1728" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="2280" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Steuerklasse</t>
   </si>
   <si>
-    <t>wohnhaft Sachsen?</t>
-  </si>
-  <si>
     <t>weiblich</t>
   </si>
   <si>
@@ -91,7 +88,10 @@
     <t>Eintragungsdatum</t>
   </si>
   <si>
-    <t>15.12.2023</t>
+    <t>Arbeitsort Sachsen?</t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
   </si>
 </sst>
 </file>
@@ -583,15 +583,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>1.4</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -650,24 +650,24 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -675,16 +675,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>6</v>

--- a/src/test/testdaten_insert_ag_pv_beitrag_sachsen/Arbeitsort Sachsen Arbeitgeber PV-Beitrag - anderer Beitragssatz.xlsx
+++ b/src/test/testdaten_insert_ag_pv_beitrag_sachsen/Arbeitsort Sachsen Arbeitgeber PV-Beitrag - anderer Beitragssatz.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_ag_pv_beitrag_sachsen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2A7D5-5947-4E33-8418-55FD3FC8DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC1A15-C055-429D-80D3-30FC565AA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="2280" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2028" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -88,10 +88,10 @@
     <t>Eintragungsdatum</t>
   </si>
   <si>
-    <t>Arbeitsort Sachsen?</t>
-  </si>
-  <si>
     <t>01.01.2025</t>
+  </si>
+  <si>
+    <t>AG-Standort in Sachsen?</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
